--- a/data/bcb_inflation_target.xlsx
+++ b/data/bcb_inflation_target.xlsx
@@ -11,21 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="31">
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>month_date</t>
+  </si>
+  <si>
+    <t>inflation_target_wtd_avg</t>
   </si>
   <si>
     <t>inflation_target</t>
   </si>
   <si>
-    <t>target_lower_range</t>
+    <t>inflation_target_lower_bound</t>
   </si>
   <si>
-    <t>target_upper_range</t>
+    <t>inflation_target_upper_bound</t>
   </si>
   <si>
     <t>cmn_norm</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
   </si>
   <si>
     <t>Resolução CMN nº 2.615</t>
@@ -96,14 +105,14 @@
   <si>
     <t>Resolução CMN nº 5.018</t>
   </si>
-  <si>
-    <t>Resolução CMN nº 5.091</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -145,6 +154,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -369,7 +381,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="5" width="36.5"/>
+    <col customWidth="1" min="1" max="1" width="6.88"/>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="23.13"/>
+    <col customWidth="1" min="4" max="4" width="15.5"/>
+    <col customWidth="1" min="5" max="5" width="26.88"/>
+    <col customWidth="1" min="6" max="6" width="27.13"/>
+    <col customWidth="1" min="7" max="7" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -388,481 +406,7463 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1999.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="D2" s="4">
         <v>8.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="E2" s="5">
         <v>6.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="5">
         <v>10.0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B3" s="3">
-        <v>6.0</v>
+        <v>36192.0</v>
       </c>
       <c r="C3" s="4">
-        <v>4.0</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D3" s="4">
         <v>8.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+      <c r="E3" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>2001.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B4" s="3">
-        <v>4.0</v>
+        <v>36220.0</v>
       </c>
       <c r="C4" s="4">
-        <v>2.0</v>
+        <v>7.5</v>
       </c>
       <c r="D4" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E4" s="5">
         <v>6.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
+      <c r="F4" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>2002.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B5" s="3">
-        <v>3.5</v>
+        <v>36251.0</v>
       </c>
       <c r="C5" s="4">
-        <v>1.5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D5" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>2003.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B6" s="3">
-        <v>4.0</v>
+        <v>36281.0</v>
       </c>
       <c r="C6" s="4">
-        <v>1.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D6" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>2004.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B7" s="3">
-        <v>5.5</v>
+        <v>36312.0</v>
       </c>
       <c r="C7" s="4">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" s="4">
         <v>8.0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>2005.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B8" s="3">
-        <v>4.5</v>
+        <v>36342.0</v>
       </c>
       <c r="C8" s="4">
-        <v>2.0</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>2006.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B9" s="3">
-        <v>4.5</v>
+        <v>36373.0</v>
       </c>
       <c r="C9" s="4">
-        <v>2.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D9" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>2007.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B10" s="3">
-        <v>4.5</v>
+        <v>36404.0</v>
       </c>
       <c r="C10" s="4">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="D10" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>2008.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B11" s="3">
-        <v>4.5</v>
+        <v>36434.0</v>
       </c>
       <c r="C11" s="4">
-        <v>2.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D11" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>8.0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>2009.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B12" s="3">
-        <v>4.5</v>
+        <v>36465.0</v>
       </c>
       <c r="C12" s="4">
-        <v>2.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D12" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>2010.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B13" s="3">
-        <v>4.5</v>
+        <v>36495.0</v>
       </c>
       <c r="C13" s="4">
-        <v>2.5</v>
+        <v>6.0</v>
       </c>
       <c r="D13" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>2011.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B14" s="3">
-        <v>4.5</v>
+        <v>36526.0</v>
       </c>
       <c r="C14" s="4">
-        <v>2.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D14" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>6.0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>2012.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B15" s="3">
-        <v>4.5</v>
+        <v>36557.0</v>
       </c>
       <c r="C15" s="4">
-        <v>2.5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D15" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>6.0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>2013.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B16" s="3">
-        <v>4.5</v>
+        <v>36586.0</v>
       </c>
       <c r="C16" s="4">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="D16" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>6.0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>2014.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B17" s="3">
-        <v>4.5</v>
+        <v>36617.0</v>
       </c>
       <c r="C17" s="4">
-        <v>2.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D17" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>6.0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>2015.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B18" s="3">
-        <v>4.5</v>
+        <v>36647.0</v>
       </c>
       <c r="C18" s="4">
-        <v>2.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D18" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>6.0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>2016.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B19" s="3">
-        <v>4.5</v>
+        <v>36678.0</v>
       </c>
       <c r="C19" s="4">
-        <v>2.5</v>
+        <v>5.0</v>
       </c>
       <c r="D19" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>6.0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>2017.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B20" s="3">
-        <v>4.5</v>
+        <v>36708.0</v>
       </c>
       <c r="C20" s="4">
-        <v>3.0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D20" s="4">
         <v>6.0</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
+      <c r="E20" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>2018.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B21" s="3">
-        <v>4.5</v>
+        <v>36739.0</v>
       </c>
       <c r="C21" s="4">
-        <v>3.0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D21" s="4">
         <v>6.0</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>21</v>
+      <c r="E21" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>2019.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B22" s="3">
-        <v>4.25</v>
+        <v>36770.0</v>
       </c>
       <c r="C22" s="4">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="D22" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>6.0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>2020.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B23" s="3">
+        <v>36800.0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E23" s="5">
         <v>4.0</v>
       </c>
-      <c r="C23" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
+      <c r="F23" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B24" s="3">
-        <v>3.75</v>
+        <v>36831.0</v>
       </c>
       <c r="C24" s="4">
-        <v>2.25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D24" s="4">
-        <v>5.25</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>6.0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>2022.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B25" s="3">
-        <v>3.5</v>
+        <v>36861.0</v>
       </c>
       <c r="C25" s="4">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D25" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>2023.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B26" s="3">
-        <v>3.25</v>
+        <v>36892.0</v>
       </c>
       <c r="C26" s="4">
-        <v>1.75</v>
+        <v>3.9583333333333335</v>
       </c>
       <c r="D26" s="4">
-        <v>4.75</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>4.0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>2024.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B27" s="3">
-        <v>3.0</v>
+        <v>36923.0</v>
       </c>
       <c r="C27" s="4">
-        <v>1.5</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="D27" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>26</v>
+        <v>4.0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>2025.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B28" s="3">
-        <v>3.0</v>
+        <v>36951.0</v>
       </c>
       <c r="C28" s="4">
-        <v>1.5</v>
+        <v>3.875</v>
       </c>
       <c r="D28" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>27</v>
+        <v>4.0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>2026.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B29" s="3">
-        <v>3.0</v>
+        <v>36982.0</v>
       </c>
       <c r="C29" s="4">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>37012.0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.7916666666666665</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>37043.0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B32" s="3">
+        <v>37073.0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>37104.0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>37135.0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.625</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>37165.0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B36" s="3">
+        <v>37196.0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.5416666666666665</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>37226.0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37257.0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.5416666666666665</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E38" s="5">
         <v>1.5</v>
       </c>
-      <c r="D29" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F38" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>37288.0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B40" s="3">
+        <v>37316.0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3.625</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>37347.0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>37377.0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>37408.0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>37438.0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.7916666666666665</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>37469.0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B46" s="3">
+        <v>37500.0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3.875</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>37530.0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>37561.0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>37591.0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>37622.0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>4.125</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>37653.0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>37681.0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>37712.0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B54" s="3">
+        <v>37742.0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4.625</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F54" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B55" s="3">
+        <v>37773.0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B56" s="3">
+        <v>37803.0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4.875</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B57" s="3">
+        <v>37834.0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F57" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B58" s="3">
+        <v>37865.0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5.125</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B59" s="3">
+        <v>37895.0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F59" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B60" s="3">
+        <v>37926.0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5.375</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F60" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="B61" s="3">
+        <v>37956.0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F61" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>37987.0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B63" s="3">
+        <v>38018.0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B64" s="3">
+        <v>38047.0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B65" s="3">
+        <v>38078.0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B66" s="3">
+        <v>38108.0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B67" s="3">
+        <v>38139.0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B68" s="3">
+        <v>38169.0</v>
+      </c>
+      <c r="C68" s="4">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="D68" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>38200.0</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="D69" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>38231.0</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="D70" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E70" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>38261.0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D71" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>38292.0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>38322.0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D73" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B74" s="3">
+        <v>38353.0</v>
+      </c>
+      <c r="C74" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D74" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B75" s="3">
+        <v>38384.0</v>
+      </c>
+      <c r="C75" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B76" s="3">
+        <v>38412.0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B77" s="3">
+        <v>38443.0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B78" s="3">
+        <v>38473.0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B79" s="3">
+        <v>38504.0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D79" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F79" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B80" s="3">
+        <v>38534.0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D80" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B81" s="3">
+        <v>38565.0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D81" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F81" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B82" s="3">
+        <v>38596.0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D82" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F82" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B83" s="3">
+        <v>38626.0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D83" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B84" s="3">
+        <v>38657.0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="B85" s="3">
+        <v>38687.0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B86" s="3">
+        <v>38718.0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E86" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F86" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B87" s="3">
+        <v>38749.0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E87" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F87" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B88" s="3">
+        <v>38777.0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D88" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F88" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B89" s="3">
+        <v>38808.0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D89" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E89" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F89" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B90" s="3">
+        <v>38838.0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E90" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F90" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B91" s="3">
+        <v>38869.0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F91" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B92" s="3">
+        <v>38899.0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F92" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B93" s="3">
+        <v>38930.0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D93" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E93" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F93" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B94" s="3">
+        <v>38961.0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D94" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E94" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F94" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B95" s="3">
+        <v>38991.0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D95" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E95" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F95" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B96" s="3">
+        <v>39022.0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D96" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F96" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="B97" s="3">
+        <v>39052.0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D97" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F97" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B98" s="3">
+        <v>39083.0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D98" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F98" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B99" s="3">
+        <v>39114.0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D99" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E99" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F99" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B100" s="3">
+        <v>39142.0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D100" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E100" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F100" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B101" s="3">
+        <v>39173.0</v>
+      </c>
+      <c r="C101" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D101" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E101" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F101" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B102" s="3">
+        <v>39203.0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E102" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F102" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B103" s="3">
+        <v>39234.0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E103" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F103" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B104" s="3">
+        <v>39264.0</v>
+      </c>
+      <c r="C104" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D104" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E104" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F104" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B105" s="3">
+        <v>39295.0</v>
+      </c>
+      <c r="C105" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D105" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E105" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F105" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B106" s="3">
+        <v>39326.0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D106" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E106" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F106" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B107" s="3">
+        <v>39356.0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D107" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E107" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F107" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B108" s="3">
+        <v>39387.0</v>
+      </c>
+      <c r="C108" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D108" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E108" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F108" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="B109" s="3">
+        <v>39417.0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E109" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F109" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B110" s="3">
+        <v>39448.0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D110" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E110" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F110" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B111" s="3">
+        <v>39479.0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D111" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E111" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F111" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B112" s="3">
+        <v>39508.0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D112" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E112" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F112" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B113" s="3">
+        <v>39539.0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E113" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F113" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B114" s="3">
+        <v>39569.0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D114" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E114" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F114" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B115" s="3">
+        <v>39600.0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D115" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E115" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F115" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B116" s="3">
+        <v>39630.0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D116" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E116" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F116" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B117" s="3">
+        <v>39661.0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D117" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E117" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F117" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B118" s="3">
+        <v>39692.0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D118" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E118" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F118" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B119" s="3">
+        <v>39722.0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D119" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E119" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F119" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B120" s="3">
+        <v>39753.0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D120" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E120" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F120" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="B121" s="3">
+        <v>39783.0</v>
+      </c>
+      <c r="C121" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D121" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E121" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F121" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B122" s="3">
+        <v>39814.0</v>
+      </c>
+      <c r="C122" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D122" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E122" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F122" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B123" s="3">
+        <v>39845.0</v>
+      </c>
+      <c r="C123" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D123" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F123" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B124" s="3">
+        <v>39873.0</v>
+      </c>
+      <c r="C124" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D124" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E124" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F124" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B125" s="3">
+        <v>39904.0</v>
+      </c>
+      <c r="C125" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D125" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F125" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B126" s="3">
+        <v>39934.0</v>
+      </c>
+      <c r="C126" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D126" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E126" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F126" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B127" s="3">
+        <v>39965.0</v>
+      </c>
+      <c r="C127" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D127" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E127" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F127" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B128" s="3">
+        <v>39995.0</v>
+      </c>
+      <c r="C128" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D128" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E128" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F128" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B129" s="3">
+        <v>40026.0</v>
+      </c>
+      <c r="C129" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D129" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E129" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F129" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B130" s="3">
+        <v>40057.0</v>
+      </c>
+      <c r="C130" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D130" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E130" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F130" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B131" s="3">
+        <v>40087.0</v>
+      </c>
+      <c r="C131" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D131" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E131" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F131" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B132" s="3">
+        <v>40118.0</v>
+      </c>
+      <c r="C132" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D132" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E132" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F132" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="B133" s="3">
+        <v>40148.0</v>
+      </c>
+      <c r="C133" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D133" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E133" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F133" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B134" s="3">
+        <v>40179.0</v>
+      </c>
+      <c r="C134" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D134" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F134" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B135" s="3">
+        <v>40210.0</v>
+      </c>
+      <c r="C135" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D135" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E135" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F135" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B136" s="3">
+        <v>40238.0</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D136" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E136" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F136" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B137" s="3">
+        <v>40269.0</v>
+      </c>
+      <c r="C137" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E137" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F137" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B138" s="3">
+        <v>40299.0</v>
+      </c>
+      <c r="C138" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D138" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E138" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F138" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B139" s="3">
+        <v>40330.0</v>
+      </c>
+      <c r="C139" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D139" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E139" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F139" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B140" s="3">
+        <v>40360.0</v>
+      </c>
+      <c r="C140" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D140" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E140" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F140" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B141" s="3">
+        <v>40391.0</v>
+      </c>
+      <c r="C141" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D141" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E141" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F141" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B142" s="3">
+        <v>40422.0</v>
+      </c>
+      <c r="C142" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D142" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E142" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F142" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B143" s="3">
+        <v>40452.0</v>
+      </c>
+      <c r="C143" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D143" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E143" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F143" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B144" s="3">
+        <v>40483.0</v>
+      </c>
+      <c r="C144" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D144" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E144" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F144" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="B145" s="3">
+        <v>40513.0</v>
+      </c>
+      <c r="C145" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E145" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F145" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B146" s="3">
+        <v>40544.0</v>
+      </c>
+      <c r="C146" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D146" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E146" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F146" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B147" s="3">
+        <v>40575.0</v>
+      </c>
+      <c r="C147" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D147" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E147" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F147" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B148" s="3">
+        <v>40603.0</v>
+      </c>
+      <c r="C148" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D148" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E148" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F148" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B149" s="3">
+        <v>40634.0</v>
+      </c>
+      <c r="C149" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D149" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E149" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F149" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B150" s="3">
+        <v>40664.0</v>
+      </c>
+      <c r="C150" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D150" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E150" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F150" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B151" s="3">
+        <v>40695.0</v>
+      </c>
+      <c r="C151" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D151" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E151" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F151" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B152" s="3">
+        <v>40725.0</v>
+      </c>
+      <c r="C152" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D152" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E152" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F152" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B153" s="3">
+        <v>40756.0</v>
+      </c>
+      <c r="C153" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D153" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E153" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F153" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B154" s="3">
+        <v>40787.0</v>
+      </c>
+      <c r="C154" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D154" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E154" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F154" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B155" s="3">
+        <v>40817.0</v>
+      </c>
+      <c r="C155" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D155" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E155" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F155" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B156" s="3">
+        <v>40848.0</v>
+      </c>
+      <c r="C156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E156" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F156" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="B157" s="3">
+        <v>40878.0</v>
+      </c>
+      <c r="C157" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D157" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E157" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F157" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B158" s="3">
+        <v>40909.0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D158" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E158" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F158" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B159" s="3">
+        <v>40940.0</v>
+      </c>
+      <c r="C159" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D159" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E159" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F159" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B160" s="3">
+        <v>40969.0</v>
+      </c>
+      <c r="C160" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D160" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E160" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F160" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B161" s="3">
+        <v>41000.0</v>
+      </c>
+      <c r="C161" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D161" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E161" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F161" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B162" s="3">
+        <v>41030.0</v>
+      </c>
+      <c r="C162" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D162" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E162" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F162" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B163" s="3">
+        <v>41061.0</v>
+      </c>
+      <c r="C163" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D163" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E163" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F163" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B164" s="3">
+        <v>41091.0</v>
+      </c>
+      <c r="C164" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D164" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E164" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F164" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B165" s="3">
+        <v>41122.0</v>
+      </c>
+      <c r="C165" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D165" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E165" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F165" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B166" s="3">
+        <v>41153.0</v>
+      </c>
+      <c r="C166" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D166" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E166" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F166" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B167" s="3">
+        <v>41183.0</v>
+      </c>
+      <c r="C167" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D167" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E167" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F167" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B168" s="3">
+        <v>41214.0</v>
+      </c>
+      <c r="C168" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D168" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E168" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F168" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="B169" s="3">
+        <v>41244.0</v>
+      </c>
+      <c r="C169" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D169" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E169" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F169" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B170" s="3">
+        <v>41275.0</v>
+      </c>
+      <c r="C170" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D170" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E170" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F170" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B171" s="3">
+        <v>41306.0</v>
+      </c>
+      <c r="C171" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D171" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E171" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F171" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B172" s="3">
+        <v>41334.0</v>
+      </c>
+      <c r="C172" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D172" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E172" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F172" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B173" s="3">
+        <v>41365.0</v>
+      </c>
+      <c r="C173" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D173" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E173" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F173" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B174" s="3">
+        <v>41395.0</v>
+      </c>
+      <c r="C174" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D174" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E174" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F174" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B175" s="3">
+        <v>41426.0</v>
+      </c>
+      <c r="C175" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D175" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E175" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F175" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B176" s="3">
+        <v>41456.0</v>
+      </c>
+      <c r="C176" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D176" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E176" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F176" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B177" s="3">
+        <v>41487.0</v>
+      </c>
+      <c r="C177" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D177" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E177" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F177" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B178" s="3">
+        <v>41518.0</v>
+      </c>
+      <c r="C178" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D178" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E178" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F178" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B179" s="3">
+        <v>41548.0</v>
+      </c>
+      <c r="C179" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D179" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E179" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F179" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B180" s="3">
+        <v>41579.0</v>
+      </c>
+      <c r="C180" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D180" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E180" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F180" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="B181" s="3">
+        <v>41609.0</v>
+      </c>
+      <c r="C181" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D181" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E181" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F181" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B182" s="3">
+        <v>41640.0</v>
+      </c>
+      <c r="C182" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D182" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E182" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F182" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B183" s="3">
+        <v>41671.0</v>
+      </c>
+      <c r="C183" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D183" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E183" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F183" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B184" s="3">
+        <v>41699.0</v>
+      </c>
+      <c r="C184" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D184" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E184" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F184" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B185" s="3">
+        <v>41730.0</v>
+      </c>
+      <c r="C185" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D185" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E185" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F185" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B186" s="3">
+        <v>41760.0</v>
+      </c>
+      <c r="C186" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D186" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E186" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F186" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B187" s="3">
+        <v>41791.0</v>
+      </c>
+      <c r="C187" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D187" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E187" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F187" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B188" s="3">
+        <v>41821.0</v>
+      </c>
+      <c r="C188" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D188" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E188" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F188" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B189" s="3">
+        <v>41852.0</v>
+      </c>
+      <c r="C189" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D189" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E189" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F189" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B190" s="3">
+        <v>41883.0</v>
+      </c>
+      <c r="C190" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D190" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E190" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F190" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B191" s="3">
+        <v>41913.0</v>
+      </c>
+      <c r="C191" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D191" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E191" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F191" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B192" s="3">
+        <v>41944.0</v>
+      </c>
+      <c r="C192" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D192" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E192" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F192" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="B193" s="3">
+        <v>41974.0</v>
+      </c>
+      <c r="C193" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D193" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E193" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F193" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B194" s="3">
+        <v>42005.0</v>
+      </c>
+      <c r="C194" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D194" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E194" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F194" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B195" s="3">
+        <v>42036.0</v>
+      </c>
+      <c r="C195" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D195" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E195" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F195" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B196" s="3">
+        <v>42064.0</v>
+      </c>
+      <c r="C196" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D196" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E196" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F196" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B197" s="3">
+        <v>42095.0</v>
+      </c>
+      <c r="C197" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D197" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E197" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F197" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B198" s="3">
+        <v>42125.0</v>
+      </c>
+      <c r="C198" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D198" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E198" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F198" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B199" s="3">
+        <v>42156.0</v>
+      </c>
+      <c r="C199" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D199" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E199" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F199" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B200" s="3">
+        <v>42186.0</v>
+      </c>
+      <c r="C200" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D200" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E200" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F200" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B201" s="3">
+        <v>42217.0</v>
+      </c>
+      <c r="C201" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D201" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E201" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F201" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B202" s="3">
+        <v>42248.0</v>
+      </c>
+      <c r="C202" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D202" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E202" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F202" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B203" s="3">
+        <v>42278.0</v>
+      </c>
+      <c r="C203" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D203" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E203" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F203" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B204" s="3">
+        <v>42309.0</v>
+      </c>
+      <c r="C204" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D204" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E204" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F204" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="B205" s="3">
+        <v>42339.0</v>
+      </c>
+      <c r="C205" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D205" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E205" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F205" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B206" s="3">
+        <v>42370.0</v>
+      </c>
+      <c r="C206" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D206" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E206" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F206" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B207" s="3">
+        <v>42401.0</v>
+      </c>
+      <c r="C207" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D207" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E207" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F207" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B208" s="3">
+        <v>42430.0</v>
+      </c>
+      <c r="C208" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D208" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E208" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F208" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B209" s="3">
+        <v>42461.0</v>
+      </c>
+      <c r="C209" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D209" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E209" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F209" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B210" s="3">
+        <v>42491.0</v>
+      </c>
+      <c r="C210" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D210" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E210" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F210" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B211" s="3">
+        <v>42522.0</v>
+      </c>
+      <c r="C211" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D211" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E211" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F211" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B212" s="3">
+        <v>42552.0</v>
+      </c>
+      <c r="C212" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D212" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E212" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F212" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B213" s="3">
+        <v>42583.0</v>
+      </c>
+      <c r="C213" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D213" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E213" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F213" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B214" s="3">
+        <v>42614.0</v>
+      </c>
+      <c r="C214" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D214" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E214" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F214" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B215" s="3">
+        <v>42644.0</v>
+      </c>
+      <c r="C215" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D215" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E215" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F215" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B216" s="3">
+        <v>42675.0</v>
+      </c>
+      <c r="C216" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D216" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E216" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F216" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="B217" s="3">
+        <v>42705.0</v>
+      </c>
+      <c r="C217" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D217" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E217" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F217" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B218" s="3">
+        <v>42736.0</v>
+      </c>
+      <c r="C218" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D218" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E218" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F218" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B219" s="3">
+        <v>42767.0</v>
+      </c>
+      <c r="C219" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D219" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E219" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F219" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B220" s="3">
+        <v>42795.0</v>
+      </c>
+      <c r="C220" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D220" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E220" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F220" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B221" s="3">
+        <v>42826.0</v>
+      </c>
+      <c r="C221" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D221" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E221" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F221" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B222" s="3">
+        <v>42856.0</v>
+      </c>
+      <c r="C222" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D222" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E222" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F222" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B223" s="3">
+        <v>42887.0</v>
+      </c>
+      <c r="C223" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D223" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E223" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F223" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B224" s="3">
+        <v>42917.0</v>
+      </c>
+      <c r="C224" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D224" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E224" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F224" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B225" s="3">
+        <v>42948.0</v>
+      </c>
+      <c r="C225" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D225" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E225" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F225" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B226" s="3">
+        <v>42979.0</v>
+      </c>
+      <c r="C226" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D226" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E226" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F226" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B227" s="3">
+        <v>43009.0</v>
+      </c>
+      <c r="C227" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D227" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E227" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F227" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B228" s="3">
+        <v>43040.0</v>
+      </c>
+      <c r="C228" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D228" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E228" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F228" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="B229" s="3">
+        <v>43070.0</v>
+      </c>
+      <c r="C229" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D229" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E229" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F229" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B230" s="3">
+        <v>43101.0</v>
+      </c>
+      <c r="C230" s="4">
+        <v>4.479166666666667</v>
+      </c>
+      <c r="D230" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E230" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F230" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B231" s="3">
+        <v>43132.0</v>
+      </c>
+      <c r="C231" s="4">
+        <v>4.458333333333333</v>
+      </c>
+      <c r="D231" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E231" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F231" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B232" s="3">
+        <v>43160.0</v>
+      </c>
+      <c r="C232" s="4">
+        <v>4.4375</v>
+      </c>
+      <c r="D232" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E232" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F232" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B233" s="3">
+        <v>43191.0</v>
+      </c>
+      <c r="C233" s="4">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="D233" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E233" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F233" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B234" s="3">
+        <v>43221.0</v>
+      </c>
+      <c r="C234" s="4">
+        <v>4.395833333333333</v>
+      </c>
+      <c r="D234" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E234" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F234" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B235" s="3">
+        <v>43252.0</v>
+      </c>
+      <c r="C235" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="D235" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E235" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F235" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B236" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="C236" s="4">
+        <v>4.354166666666667</v>
+      </c>
+      <c r="D236" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E236" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F236" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43313.0</v>
+      </c>
+      <c r="C237" s="4">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D237" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E237" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F237" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B238" s="3">
+        <v>43344.0</v>
+      </c>
+      <c r="C238" s="4">
+        <v>4.3125</v>
+      </c>
+      <c r="D238" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E238" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F238" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B239" s="3">
+        <v>43374.0</v>
+      </c>
+      <c r="C239" s="4">
+        <v>4.291666666666667</v>
+      </c>
+      <c r="D239" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E239" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F239" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B240" s="3">
+        <v>43405.0</v>
+      </c>
+      <c r="C240" s="4">
+        <v>4.270833333333333</v>
+      </c>
+      <c r="D240" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E240" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F240" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="B241" s="3">
+        <v>43435.0</v>
+      </c>
+      <c r="C241" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="D241" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E241" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F241" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B242" s="3">
+        <v>43466.0</v>
+      </c>
+      <c r="C242" s="4">
+        <v>4.229166666666667</v>
+      </c>
+      <c r="D242" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E242" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F242" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B243" s="3">
+        <v>43497.0</v>
+      </c>
+      <c r="C243" s="4">
+        <v>4.208333333333333</v>
+      </c>
+      <c r="D243" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E243" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F243" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B244" s="3">
+        <v>43525.0</v>
+      </c>
+      <c r="C244" s="4">
+        <v>4.1875</v>
+      </c>
+      <c r="D244" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E244" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F244" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43556.0</v>
+      </c>
+      <c r="C245" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D245" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E245" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F245" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43586.0</v>
+      </c>
+      <c r="C246" s="4">
+        <v>4.145833333333333</v>
+      </c>
+      <c r="D246" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E246" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F246" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B247" s="3">
+        <v>43617.0</v>
+      </c>
+      <c r="C247" s="4">
+        <v>4.125</v>
+      </c>
+      <c r="D247" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E247" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F247" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B248" s="3">
+        <v>43647.0</v>
+      </c>
+      <c r="C248" s="4">
+        <v>4.104166666666667</v>
+      </c>
+      <c r="D248" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E248" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F248" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B249" s="3">
+        <v>43678.0</v>
+      </c>
+      <c r="C249" s="4">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="D249" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E249" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F249" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B250" s="3">
+        <v>43709.0</v>
+      </c>
+      <c r="C250" s="4">
+        <v>4.0625</v>
+      </c>
+      <c r="D250" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E250" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F250" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B251" s="3">
+        <v>43739.0</v>
+      </c>
+      <c r="C251" s="4">
+        <v>4.041666666666667</v>
+      </c>
+      <c r="D251" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E251" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F251" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B252" s="3">
+        <v>43770.0</v>
+      </c>
+      <c r="C252" s="4">
+        <v>4.020833333333333</v>
+      </c>
+      <c r="D252" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E252" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F252" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="B253" s="3">
+        <v>43800.0</v>
+      </c>
+      <c r="C253" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D253" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E253" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F253" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B254" s="3">
+        <v>43831.0</v>
+      </c>
+      <c r="C254" s="4">
+        <v>3.9791666666666665</v>
+      </c>
+      <c r="D254" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E254" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F254" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B255" s="3">
+        <v>43862.0</v>
+      </c>
+      <c r="C255" s="4">
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="D255" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E255" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F255" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B256" s="3">
+        <v>43891.0</v>
+      </c>
+      <c r="C256" s="4">
+        <v>3.9375</v>
+      </c>
+      <c r="D256" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E256" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F256" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B257" s="3">
+        <v>43922.0</v>
+      </c>
+      <c r="C257" s="4">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="D257" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E257" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F257" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B258" s="3">
+        <v>43952.0</v>
+      </c>
+      <c r="C258" s="4">
+        <v>3.8958333333333335</v>
+      </c>
+      <c r="D258" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E258" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F258" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B259" s="3">
+        <v>43983.0</v>
+      </c>
+      <c r="C259" s="4">
+        <v>3.875</v>
+      </c>
+      <c r="D259" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E259" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F259" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B260" s="3">
+        <v>44013.0</v>
+      </c>
+      <c r="C260" s="4">
+        <v>3.8541666666666665</v>
+      </c>
+      <c r="D260" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E260" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F260" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B261" s="3">
+        <v>44044.0</v>
+      </c>
+      <c r="C261" s="4">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="D261" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E261" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F261" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B262" s="3">
+        <v>44075.0</v>
+      </c>
+      <c r="C262" s="4">
+        <v>3.8125</v>
+      </c>
+      <c r="D262" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E262" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F262" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B263" s="3">
+        <v>44105.0</v>
+      </c>
+      <c r="C263" s="4">
+        <v>3.7916666666666665</v>
+      </c>
+      <c r="D263" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E263" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F263" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B264" s="3">
+        <v>44136.0</v>
+      </c>
+      <c r="C264" s="4">
+        <v>3.7708333333333335</v>
+      </c>
+      <c r="D264" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E264" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F264" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="B265" s="3">
+        <v>44166.0</v>
+      </c>
+      <c r="C265" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D265" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E265" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F265" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B266" s="3">
+        <v>44197.0</v>
+      </c>
+      <c r="C266" s="4">
+        <v>3.7291666666666665</v>
+      </c>
+      <c r="D266" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E266" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F266" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B267" s="3">
+        <v>44228.0</v>
+      </c>
+      <c r="C267" s="4">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="D267" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E267" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F267" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B268" s="3">
+        <v>44256.0</v>
+      </c>
+      <c r="C268" s="4">
+        <v>3.6875</v>
+      </c>
+      <c r="D268" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E268" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F268" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B269" s="3">
+        <v>44287.0</v>
+      </c>
+      <c r="C269" s="4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D269" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E269" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F269" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B270" s="3">
+        <v>44317.0</v>
+      </c>
+      <c r="C270" s="4">
+        <v>3.6458333333333335</v>
+      </c>
+      <c r="D270" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E270" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F270" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B271" s="3">
+        <v>44348.0</v>
+      </c>
+      <c r="C271" s="4">
+        <v>3.625</v>
+      </c>
+      <c r="D271" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E271" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F271" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B272" s="3">
+        <v>44378.0</v>
+      </c>
+      <c r="C272" s="4">
+        <v>3.6041666666666665</v>
+      </c>
+      <c r="D272" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E272" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F272" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B273" s="3">
+        <v>44409.0</v>
+      </c>
+      <c r="C273" s="4">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="D273" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E273" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F273" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B274" s="3">
+        <v>44440.0</v>
+      </c>
+      <c r="C274" s="4">
+        <v>3.5625</v>
+      </c>
+      <c r="D274" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E274" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F274" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B275" s="3">
+        <v>44470.0</v>
+      </c>
+      <c r="C275" s="4">
+        <v>3.5416666666666665</v>
+      </c>
+      <c r="D275" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E275" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F275" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B276" s="3">
+        <v>44501.0</v>
+      </c>
+      <c r="C276" s="4">
+        <v>3.5208333333333335</v>
+      </c>
+      <c r="D276" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E276" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F276" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="B277" s="3">
+        <v>44531.0</v>
+      </c>
+      <c r="C277" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D277" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E277" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F277" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B278" s="3">
+        <v>44562.0</v>
+      </c>
+      <c r="C278" s="4">
+        <v>3.4791666666666665</v>
+      </c>
+      <c r="D278" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E278" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F278" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B279" s="3">
+        <v>44593.0</v>
+      </c>
+      <c r="C279" s="4">
+        <v>3.4583333333333335</v>
+      </c>
+      <c r="D279" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E279" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F279" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B280" s="3">
+        <v>44621.0</v>
+      </c>
+      <c r="C280" s="4">
+        <v>3.4375</v>
+      </c>
+      <c r="D280" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E280" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F280" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B281" s="3">
+        <v>44652.0</v>
+      </c>
+      <c r="C281" s="4">
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="D281" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E281" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F281" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B282" s="3">
+        <v>44682.0</v>
+      </c>
+      <c r="C282" s="4">
+        <v>3.3958333333333335</v>
+      </c>
+      <c r="D282" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E282" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F282" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B283" s="3">
+        <v>44713.0</v>
+      </c>
+      <c r="C283" s="4">
+        <v>3.375</v>
+      </c>
+      <c r="D283" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E283" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F283" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B284" s="3">
+        <v>44743.0</v>
+      </c>
+      <c r="C284" s="4">
+        <v>3.3541666666666665</v>
+      </c>
+      <c r="D284" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E284" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F284" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B285" s="3">
+        <v>44774.0</v>
+      </c>
+      <c r="C285" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D285" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E285" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F285" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B286" s="3">
+        <v>44805.0</v>
+      </c>
+      <c r="C286" s="4">
+        <v>3.3125</v>
+      </c>
+      <c r="D286" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E286" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F286" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B287" s="3">
+        <v>44835.0</v>
+      </c>
+      <c r="C287" s="4">
+        <v>3.2916666666666665</v>
+      </c>
+      <c r="D287" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E287" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F287" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B288" s="3">
+        <v>44866.0</v>
+      </c>
+      <c r="C288" s="4">
+        <v>3.2708333333333335</v>
+      </c>
+      <c r="D288" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E288" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F288" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="B289" s="3">
+        <v>44896.0</v>
+      </c>
+      <c r="C289" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D289" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E289" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F289" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B290" s="3">
+        <v>44927.0</v>
+      </c>
+      <c r="C290" s="4">
+        <v>3.2291666666666665</v>
+      </c>
+      <c r="D290" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E290" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F290" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B291" s="3">
+        <v>44958.0</v>
+      </c>
+      <c r="C291" s="4">
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="D291" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E291" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F291" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B292" s="3">
+        <v>44986.0</v>
+      </c>
+      <c r="C292" s="4">
+        <v>3.1875</v>
+      </c>
+      <c r="D292" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E292" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F292" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B293" s="3">
+        <v>45017.0</v>
+      </c>
+      <c r="C293" s="4">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="D293" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E293" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F293" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B294" s="3">
+        <v>45047.0</v>
+      </c>
+      <c r="C294" s="4">
+        <v>3.1458333333333335</v>
+      </c>
+      <c r="D294" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E294" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F294" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B295" s="3">
+        <v>45078.0</v>
+      </c>
+      <c r="C295" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="D295" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E295" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F295" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B296" s="3">
+        <v>45108.0</v>
+      </c>
+      <c r="C296" s="4">
+        <v>3.1041666666666665</v>
+      </c>
+      <c r="D296" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E296" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F296" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B297" s="3">
+        <v>45139.0</v>
+      </c>
+      <c r="C297" s="4">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="D297" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E297" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F297" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B298" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="C298" s="4">
+        <v>3.0625</v>
+      </c>
+      <c r="D298" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E298" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F298" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B299" s="3">
+        <v>45200.0</v>
+      </c>
+      <c r="C299" s="4">
+        <v>3.0416666666666665</v>
+      </c>
+      <c r="D299" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E299" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F299" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B300" s="3">
+        <v>45231.0</v>
+      </c>
+      <c r="C300" s="4">
+        <v>3.0208333333333335</v>
+      </c>
+      <c r="D300" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E300" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F300" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="B301" s="3">
+        <v>45261.0</v>
+      </c>
+      <c r="C301" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D301" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E301" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F301" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B302" s="3">
+        <v>45292.0</v>
+      </c>
+      <c r="C302" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D302" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E302" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F302" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B303" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="C303" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D303" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E303" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F303" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B304" s="3">
+        <v>45352.0</v>
+      </c>
+      <c r="C304" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D304" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E304" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F304" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B305" s="3">
+        <v>45383.0</v>
+      </c>
+      <c r="C305" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D305" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E305" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F305" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B306" s="3">
+        <v>45413.0</v>
+      </c>
+      <c r="C306" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D306" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E306" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F306" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B307" s="3">
+        <v>45444.0</v>
+      </c>
+      <c r="C307" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D307" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E307" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F307" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B308" s="3">
+        <v>45474.0</v>
+      </c>
+      <c r="C308" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D308" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E308" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F308" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B309" s="3">
+        <v>45505.0</v>
+      </c>
+      <c r="C309" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D309" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E309" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F309" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B310" s="3">
+        <v>45536.0</v>
+      </c>
+      <c r="C310" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D310" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E310" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F310" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B311" s="3">
+        <v>45566.0</v>
+      </c>
+      <c r="C311" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D311" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E311" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F311" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B312" s="3">
+        <v>45597.0</v>
+      </c>
+      <c r="C312" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D312" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E312" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F312" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="B313" s="3">
+        <v>45627.0</v>
+      </c>
+      <c r="C313" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D313" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E313" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F313" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B314" s="3">
+        <v>45658.0</v>
+      </c>
+      <c r="C314" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D314" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E314" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F314" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B315" s="3">
+        <v>45689.0</v>
+      </c>
+      <c r="C315" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D315" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E315" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F315" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B316" s="3">
+        <v>45717.0</v>
+      </c>
+      <c r="C316" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D316" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E316" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F316" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B317" s="3">
+        <v>45748.0</v>
+      </c>
+      <c r="C317" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D317" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E317" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F317" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B318" s="3">
+        <v>45778.0</v>
+      </c>
+      <c r="C318" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D318" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E318" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F318" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B319" s="3">
+        <v>45809.0</v>
+      </c>
+      <c r="C319" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D319" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E319" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F319" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B320" s="3">
+        <v>45839.0</v>
+      </c>
+      <c r="C320" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D320" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E320" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F320" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B321" s="3">
+        <v>45870.0</v>
+      </c>
+      <c r="C321" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D321" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E321" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F321" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B322" s="3">
+        <v>45901.0</v>
+      </c>
+      <c r="C322" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D322" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E322" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F322" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B323" s="3">
+        <v>45931.0</v>
+      </c>
+      <c r="C323" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D323" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E323" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F323" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B324" s="3">
+        <v>45962.0</v>
+      </c>
+      <c r="C324" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D324" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E324" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F324" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="B325" s="3">
+        <v>45992.0</v>
+      </c>
+      <c r="C325" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D325" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E325" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F325" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/bcb_inflation_target.xlsx
+++ b/data/bcb_inflation_target.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="30">
   <si>
     <t>year</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>cmn_norm</t>
-  </si>
-  <si>
-    <t>1999-01-01</t>
   </si>
   <si>
     <t>Resolução CMN nº 2.615</t>
@@ -381,13 +378,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.88"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
     <col customWidth="1" min="2" max="2" width="13.0"/>
     <col customWidth="1" min="3" max="3" width="23.13"/>
     <col customWidth="1" min="4" max="4" width="15.5"/>
     <col customWidth="1" min="5" max="5" width="26.88"/>
     <col customWidth="1" min="6" max="6" width="27.13"/>
-    <col customWidth="1" min="7" max="7" width="19.75"/>
+    <col customWidth="1" min="7" max="7" width="26.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,11 +414,11 @@
       <c r="A2" s="2">
         <v>1999.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="3">
+        <v>36161.0</v>
       </c>
       <c r="C2" s="4">
-        <v>7.833333333333333</v>
+        <v>7.83</v>
       </c>
       <c r="D2" s="4">
         <v>8.0</v>
@@ -433,7 +430,7 @@
         <v>10.0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +441,7 @@
         <v>36192.0</v>
       </c>
       <c r="C3" s="4">
-        <v>7.666666666666667</v>
+        <v>7.67</v>
       </c>
       <c r="D3" s="4">
         <v>8.0</v>
@@ -456,7 +453,7 @@
         <v>10.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +476,7 @@
         <v>10.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +487,7 @@
         <v>36251.0</v>
       </c>
       <c r="C5" s="4">
-        <v>7.333333333333333</v>
+        <v>7.33</v>
       </c>
       <c r="D5" s="4">
         <v>8.0</v>
@@ -502,7 +499,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +510,7 @@
         <v>36281.0</v>
       </c>
       <c r="C6" s="4">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
       <c r="D6" s="4">
         <v>8.0</v>
@@ -525,7 +522,7 @@
         <v>10.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +545,7 @@
         <v>10.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +556,7 @@
         <v>36342.0</v>
       </c>
       <c r="C8" s="4">
-        <v>6.833333333333333</v>
+        <v>6.83</v>
       </c>
       <c r="D8" s="4">
         <v>8.0</v>
@@ -571,7 +568,7 @@
         <v>10.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +579,7 @@
         <v>36373.0</v>
       </c>
       <c r="C9" s="4">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
       <c r="D9" s="4">
         <v>8.0</v>
@@ -594,7 +591,7 @@
         <v>10.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +614,7 @@
         <v>10.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +625,7 @@
         <v>36434.0</v>
       </c>
       <c r="C11" s="4">
-        <v>6.333333333333333</v>
+        <v>6.33</v>
       </c>
       <c r="D11" s="4">
         <v>8.0</v>
@@ -640,7 +637,7 @@
         <v>10.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +648,7 @@
         <v>36465.0</v>
       </c>
       <c r="C12" s="4">
-        <v>6.166666666666667</v>
+        <v>6.17</v>
       </c>
       <c r="D12" s="4">
         <v>8.0</v>
@@ -663,7 +660,7 @@
         <v>10.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -686,7 +683,7 @@
         <v>10.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -697,7 +694,7 @@
         <v>36526.0</v>
       </c>
       <c r="C14" s="4">
-        <v>5.833333333333333</v>
+        <v>5.83</v>
       </c>
       <c r="D14" s="4">
         <v>6.0</v>
@@ -709,7 +706,7 @@
         <v>8.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -720,7 +717,7 @@
         <v>36557.0</v>
       </c>
       <c r="C15" s="4">
-        <v>5.666666666666667</v>
+        <v>5.67</v>
       </c>
       <c r="D15" s="4">
         <v>6.0</v>
@@ -732,7 +729,7 @@
         <v>8.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -755,7 +752,7 @@
         <v>8.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -766,7 +763,7 @@
         <v>36617.0</v>
       </c>
       <c r="C17" s="4">
-        <v>5.333333333333333</v>
+        <v>5.33</v>
       </c>
       <c r="D17" s="4">
         <v>6.0</v>
@@ -778,7 +775,7 @@
         <v>8.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -789,7 +786,7 @@
         <v>36647.0</v>
       </c>
       <c r="C18" s="4">
-        <v>5.166666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="D18" s="4">
         <v>6.0</v>
@@ -801,7 +798,7 @@
         <v>8.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -824,7 +821,7 @@
         <v>8.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -835,7 +832,7 @@
         <v>36708.0</v>
       </c>
       <c r="C20" s="4">
-        <v>4.833333333333333</v>
+        <v>4.83</v>
       </c>
       <c r="D20" s="4">
         <v>6.0</v>
@@ -847,7 +844,7 @@
         <v>8.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -858,7 +855,7 @@
         <v>36739.0</v>
       </c>
       <c r="C21" s="4">
-        <v>4.666666666666667</v>
+        <v>4.67</v>
       </c>
       <c r="D21" s="4">
         <v>6.0</v>
@@ -870,7 +867,7 @@
         <v>8.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +890,7 @@
         <v>8.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -904,7 +901,7 @@
         <v>36800.0</v>
       </c>
       <c r="C23" s="4">
-        <v>4.333333333333333</v>
+        <v>4.33</v>
       </c>
       <c r="D23" s="4">
         <v>6.0</v>
@@ -916,7 +913,7 @@
         <v>8.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -927,7 +924,7 @@
         <v>36831.0</v>
       </c>
       <c r="C24" s="4">
-        <v>4.166666666666667</v>
+        <v>4.17</v>
       </c>
       <c r="D24" s="4">
         <v>6.0</v>
@@ -939,7 +936,7 @@
         <v>8.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -962,7 +959,7 @@
         <v>8.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -973,7 +970,7 @@
         <v>36892.0</v>
       </c>
       <c r="C26" s="4">
-        <v>3.9583333333333335</v>
+        <v>3.96</v>
       </c>
       <c r="D26" s="4">
         <v>4.0</v>
@@ -985,7 +982,7 @@
         <v>6.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -996,7 +993,7 @@
         <v>36923.0</v>
       </c>
       <c r="C27" s="4">
-        <v>3.9166666666666665</v>
+        <v>3.92</v>
       </c>
       <c r="D27" s="4">
         <v>4.0</v>
@@ -1008,7 +1005,7 @@
         <v>6.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1016,7 @@
         <v>36951.0</v>
       </c>
       <c r="C28" s="4">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="D28" s="4">
         <v>4.0</v>
@@ -1031,7 +1028,7 @@
         <v>6.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1042,7 +1039,7 @@
         <v>36982.0</v>
       </c>
       <c r="C29" s="4">
-        <v>3.8333333333333335</v>
+        <v>3.83</v>
       </c>
       <c r="D29" s="4">
         <v>4.0</v>
@@ -1054,7 +1051,7 @@
         <v>6.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1062,7 @@
         <v>37012.0</v>
       </c>
       <c r="C30" s="4">
-        <v>3.7916666666666665</v>
+        <v>3.79</v>
       </c>
       <c r="D30" s="4">
         <v>4.0</v>
@@ -1077,7 +1074,7 @@
         <v>6.0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1100,7 +1097,7 @@
         <v>6.0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1111,7 +1108,7 @@
         <v>37073.0</v>
       </c>
       <c r="C32" s="4">
-        <v>3.7083333333333335</v>
+        <v>3.71</v>
       </c>
       <c r="D32" s="4">
         <v>4.0</v>
@@ -1123,7 +1120,7 @@
         <v>6.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1134,7 +1131,7 @@
         <v>37104.0</v>
       </c>
       <c r="C33" s="4">
-        <v>3.6666666666666665</v>
+        <v>3.67</v>
       </c>
       <c r="D33" s="4">
         <v>4.0</v>
@@ -1146,7 +1143,7 @@
         <v>6.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1157,7 +1154,7 @@
         <v>37135.0</v>
       </c>
       <c r="C34" s="4">
-        <v>3.625</v>
+        <v>3.63</v>
       </c>
       <c r="D34" s="4">
         <v>4.0</v>
@@ -1169,7 +1166,7 @@
         <v>6.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1180,7 +1177,7 @@
         <v>37165.0</v>
       </c>
       <c r="C35" s="4">
-        <v>3.5833333333333335</v>
+        <v>3.58</v>
       </c>
       <c r="D35" s="4">
         <v>4.0</v>
@@ -1192,7 +1189,7 @@
         <v>6.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1203,7 +1200,7 @@
         <v>37196.0</v>
       </c>
       <c r="C36" s="4">
-        <v>3.5416666666666665</v>
+        <v>3.54</v>
       </c>
       <c r="D36" s="4">
         <v>4.0</v>
@@ -1215,7 +1212,7 @@
         <v>6.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1238,7 +1235,7 @@
         <v>6.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1249,7 +1246,7 @@
         <v>37257.0</v>
       </c>
       <c r="C38" s="4">
-        <v>3.5416666666666665</v>
+        <v>3.54</v>
       </c>
       <c r="D38" s="4">
         <v>3.5</v>
@@ -1261,7 +1258,7 @@
         <v>5.5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1272,7 +1269,7 @@
         <v>37288.0</v>
       </c>
       <c r="C39" s="4">
-        <v>3.5833333333333335</v>
+        <v>3.58</v>
       </c>
       <c r="D39" s="4">
         <v>3.5</v>
@@ -1284,7 +1281,7 @@
         <v>5.5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1295,7 +1292,7 @@
         <v>37316.0</v>
       </c>
       <c r="C40" s="4">
-        <v>3.625</v>
+        <v>3.63</v>
       </c>
       <c r="D40" s="4">
         <v>3.5</v>
@@ -1307,7 +1304,7 @@
         <v>5.5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1318,7 +1315,7 @@
         <v>37347.0</v>
       </c>
       <c r="C41" s="4">
-        <v>3.6666666666666665</v>
+        <v>3.67</v>
       </c>
       <c r="D41" s="4">
         <v>3.5</v>
@@ -1330,7 +1327,7 @@
         <v>5.5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1341,7 +1338,7 @@
         <v>37377.0</v>
       </c>
       <c r="C42" s="4">
-        <v>3.7083333333333335</v>
+        <v>3.71</v>
       </c>
       <c r="D42" s="4">
         <v>3.5</v>
@@ -1353,7 +1350,7 @@
         <v>5.5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1376,7 +1373,7 @@
         <v>5.5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1387,7 +1384,7 @@
         <v>37438.0</v>
       </c>
       <c r="C44" s="4">
-        <v>3.7916666666666665</v>
+        <v>3.79</v>
       </c>
       <c r="D44" s="4">
         <v>3.5</v>
@@ -1399,7 +1396,7 @@
         <v>5.5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1410,7 +1407,7 @@
         <v>37469.0</v>
       </c>
       <c r="C45" s="4">
-        <v>3.8333333333333335</v>
+        <v>3.83</v>
       </c>
       <c r="D45" s="4">
         <v>3.5</v>
@@ -1422,7 +1419,7 @@
         <v>5.5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1433,7 +1430,7 @@
         <v>37500.0</v>
       </c>
       <c r="C46" s="4">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="D46" s="4">
         <v>3.5</v>
@@ -1445,7 +1442,7 @@
         <v>5.5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1456,7 +1453,7 @@
         <v>37530.0</v>
       </c>
       <c r="C47" s="4">
-        <v>3.9166666666666665</v>
+        <v>3.92</v>
       </c>
       <c r="D47" s="4">
         <v>3.5</v>
@@ -1468,7 +1465,7 @@
         <v>5.5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1479,7 +1476,7 @@
         <v>37561.0</v>
       </c>
       <c r="C48" s="4">
-        <v>3.9583333333333335</v>
+        <v>3.96</v>
       </c>
       <c r="D48" s="4">
         <v>3.5</v>
@@ -1491,7 +1488,7 @@
         <v>5.5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1514,7 +1511,7 @@
         <v>5.5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1525,7 +1522,7 @@
         <v>37622.0</v>
       </c>
       <c r="C50" s="4">
-        <v>4.125</v>
+        <v>4.13</v>
       </c>
       <c r="D50" s="4">
         <v>4.0</v>
@@ -1537,7 +1534,7 @@
         <v>6.5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1560,7 +1557,7 @@
         <v>6.5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1571,7 +1568,7 @@
         <v>37681.0</v>
       </c>
       <c r="C52" s="4">
-        <v>4.375</v>
+        <v>4.38</v>
       </c>
       <c r="D52" s="4">
         <v>4.0</v>
@@ -1583,7 +1580,7 @@
         <v>6.5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1606,7 +1603,7 @@
         <v>6.5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1617,7 +1614,7 @@
         <v>37742.0</v>
       </c>
       <c r="C54" s="4">
-        <v>4.625</v>
+        <v>4.63</v>
       </c>
       <c r="D54" s="4">
         <v>4.0</v>
@@ -1629,7 +1626,7 @@
         <v>6.5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1652,7 +1649,7 @@
         <v>6.5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -1663,7 +1660,7 @@
         <v>37803.0</v>
       </c>
       <c r="C56" s="4">
-        <v>4.875</v>
+        <v>4.88</v>
       </c>
       <c r="D56" s="4">
         <v>4.0</v>
@@ -1675,7 +1672,7 @@
         <v>6.5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1698,7 +1695,7 @@
         <v>6.5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1709,7 +1706,7 @@
         <v>37865.0</v>
       </c>
       <c r="C58" s="4">
-        <v>5.125</v>
+        <v>5.13</v>
       </c>
       <c r="D58" s="4">
         <v>4.0</v>
@@ -1721,7 +1718,7 @@
         <v>6.5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -1744,7 +1741,7 @@
         <v>6.5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -1755,7 +1752,7 @@
         <v>37926.0</v>
       </c>
       <c r="C60" s="4">
-        <v>5.375</v>
+        <v>5.38</v>
       </c>
       <c r="D60" s="4">
         <v>4.0</v>
@@ -1767,7 +1764,7 @@
         <v>6.5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -1790,7 +1787,7 @@
         <v>6.5</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -1801,7 +1798,7 @@
         <v>37987.0</v>
       </c>
       <c r="C62" s="4">
-        <v>5.416666666666667</v>
+        <v>5.42</v>
       </c>
       <c r="D62" s="4">
         <v>5.5</v>
@@ -1813,7 +1810,7 @@
         <v>8.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -1824,7 +1821,7 @@
         <v>38018.0</v>
       </c>
       <c r="C63" s="4">
-        <v>5.333333333333333</v>
+        <v>5.33</v>
       </c>
       <c r="D63" s="4">
         <v>5.5</v>
@@ -1836,7 +1833,7 @@
         <v>8.0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1859,7 +1856,7 @@
         <v>8.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -1870,7 +1867,7 @@
         <v>38078.0</v>
       </c>
       <c r="C65" s="4">
-        <v>5.166666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="D65" s="4">
         <v>5.5</v>
@@ -1882,7 +1879,7 @@
         <v>8.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -1893,7 +1890,7 @@
         <v>38108.0</v>
       </c>
       <c r="C66" s="4">
-        <v>5.083333333333333</v>
+        <v>5.08</v>
       </c>
       <c r="D66" s="4">
         <v>5.5</v>
@@ -1905,7 +1902,7 @@
         <v>8.0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -1928,7 +1925,7 @@
         <v>8.0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1939,7 +1936,7 @@
         <v>38169.0</v>
       </c>
       <c r="C68" s="4">
-        <v>4.916666666666667</v>
+        <v>4.92</v>
       </c>
       <c r="D68" s="4">
         <v>5.5</v>
@@ -1951,7 +1948,7 @@
         <v>8.0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1962,7 +1959,7 @@
         <v>38200.0</v>
       </c>
       <c r="C69" s="4">
-        <v>4.833333333333333</v>
+        <v>4.83</v>
       </c>
       <c r="D69" s="4">
         <v>5.5</v>
@@ -1974,7 +1971,7 @@
         <v>8.0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -1997,7 +1994,7 @@
         <v>8.0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -2008,7 +2005,7 @@
         <v>38261.0</v>
       </c>
       <c r="C71" s="4">
-        <v>4.666666666666667</v>
+        <v>4.67</v>
       </c>
       <c r="D71" s="4">
         <v>5.5</v>
@@ -2020,7 +2017,7 @@
         <v>8.0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -2031,7 +2028,7 @@
         <v>38292.0</v>
       </c>
       <c r="C72" s="4">
-        <v>4.583333333333333</v>
+        <v>4.58</v>
       </c>
       <c r="D72" s="4">
         <v>5.5</v>
@@ -2043,7 +2040,7 @@
         <v>8.0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -2066,7 +2063,7 @@
         <v>8.0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -2089,7 +2086,7 @@
         <v>7.0</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2112,7 +2109,7 @@
         <v>7.0</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -2135,7 +2132,7 @@
         <v>7.0</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -2158,7 +2155,7 @@
         <v>7.0</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -2181,7 +2178,7 @@
         <v>7.0</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -2204,7 +2201,7 @@
         <v>7.0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -2227,7 +2224,7 @@
         <v>7.0</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -2250,7 +2247,7 @@
         <v>7.0</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -2273,7 +2270,7 @@
         <v>7.0</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -2296,7 +2293,7 @@
         <v>7.0</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2319,7 +2316,7 @@
         <v>7.0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2342,7 +2339,7 @@
         <v>7.0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -2365,7 +2362,7 @@
         <v>6.5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -2388,7 +2385,7 @@
         <v>6.5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
@@ -2411,7 +2408,7 @@
         <v>6.5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -2434,7 +2431,7 @@
         <v>6.5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -2457,7 +2454,7 @@
         <v>6.5</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -2480,7 +2477,7 @@
         <v>6.5</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -2503,7 +2500,7 @@
         <v>6.5</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -2526,7 +2523,7 @@
         <v>6.5</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -2549,7 +2546,7 @@
         <v>6.5</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -2572,7 +2569,7 @@
         <v>6.5</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -2595,7 +2592,7 @@
         <v>6.5</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2618,7 +2615,7 @@
         <v>6.5</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2641,7 +2638,7 @@
         <v>6.5</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -2664,7 +2661,7 @@
         <v>6.5</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -2687,7 +2684,7 @@
         <v>6.5</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -2710,7 +2707,7 @@
         <v>6.5</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -2733,7 +2730,7 @@
         <v>6.5</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -2756,7 +2753,7 @@
         <v>6.5</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -2779,7 +2776,7 @@
         <v>6.5</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -2802,7 +2799,7 @@
         <v>6.5</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -2825,7 +2822,7 @@
         <v>6.5</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -2848,7 +2845,7 @@
         <v>6.5</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2871,7 +2868,7 @@
         <v>6.5</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -2894,7 +2891,7 @@
         <v>6.5</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -2917,7 +2914,7 @@
         <v>6.5</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -2940,7 +2937,7 @@
         <v>6.5</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -2963,7 +2960,7 @@
         <v>6.5</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -2986,7 +2983,7 @@
         <v>6.5</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -3009,7 +3006,7 @@
         <v>6.5</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -3032,7 +3029,7 @@
         <v>6.5</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -3055,7 +3052,7 @@
         <v>6.5</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -3078,7 +3075,7 @@
         <v>6.5</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -3101,7 +3098,7 @@
         <v>6.5</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -3124,7 +3121,7 @@
         <v>6.5</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -3147,7 +3144,7 @@
         <v>6.5</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -3170,7 +3167,7 @@
         <v>6.5</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -3193,7 +3190,7 @@
         <v>6.5</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -3216,7 +3213,7 @@
         <v>6.5</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -3239,7 +3236,7 @@
         <v>6.5</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -3262,7 +3259,7 @@
         <v>6.5</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -3285,7 +3282,7 @@
         <v>6.5</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -3308,7 +3305,7 @@
         <v>6.5</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -3331,7 +3328,7 @@
         <v>6.5</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -3354,7 +3351,7 @@
         <v>6.5</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -3377,7 +3374,7 @@
         <v>6.5</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -3400,7 +3397,7 @@
         <v>6.5</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3420,7 @@
         <v>6.5</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -3446,7 +3443,7 @@
         <v>6.5</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -3469,7 +3466,7 @@
         <v>6.5</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -3492,7 +3489,7 @@
         <v>6.5</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -3515,7 +3512,7 @@
         <v>6.5</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -3538,7 +3535,7 @@
         <v>6.5</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -3561,7 +3558,7 @@
         <v>6.5</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -3584,7 +3581,7 @@
         <v>6.5</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -3607,7 +3604,7 @@
         <v>6.5</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
@@ -3630,7 +3627,7 @@
         <v>6.5</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -3653,7 +3650,7 @@
         <v>6.5</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -3676,7 +3673,7 @@
         <v>6.5</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -3699,7 +3696,7 @@
         <v>6.5</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
@@ -3722,7 +3719,7 @@
         <v>6.5</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
@@ -3745,7 +3742,7 @@
         <v>6.5</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -3768,7 +3765,7 @@
         <v>6.5</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -3791,7 +3788,7 @@
         <v>6.5</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -3814,7 +3811,7 @@
         <v>6.5</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -3837,7 +3834,7 @@
         <v>6.5</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
@@ -3860,7 +3857,7 @@
         <v>6.5</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
@@ -3883,7 +3880,7 @@
         <v>6.5</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
@@ -3906,7 +3903,7 @@
         <v>6.5</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -3929,7 +3926,7 @@
         <v>6.5</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -3952,7 +3949,7 @@
         <v>6.5</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
@@ -3975,7 +3972,7 @@
         <v>6.5</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
@@ -3998,7 +3995,7 @@
         <v>6.5</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -4021,7 +4018,7 @@
         <v>6.5</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159">
@@ -4044,7 +4041,7 @@
         <v>6.5</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
@@ -4067,7 +4064,7 @@
         <v>6.5</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
@@ -4090,7 +4087,7 @@
         <v>6.5</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -4113,7 +4110,7 @@
         <v>6.5</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163">
@@ -4136,7 +4133,7 @@
         <v>6.5</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164">
@@ -4159,7 +4156,7 @@
         <v>6.5</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -4182,7 +4179,7 @@
         <v>6.5</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
@@ -4205,7 +4202,7 @@
         <v>6.5</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -4228,7 +4225,7 @@
         <v>6.5</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
@@ -4251,7 +4248,7 @@
         <v>6.5</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
@@ -4274,7 +4271,7 @@
         <v>6.5</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
@@ -4297,7 +4294,7 @@
         <v>6.5</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -4320,7 +4317,7 @@
         <v>6.5</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -4343,7 +4340,7 @@
         <v>6.5</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -4366,7 +4363,7 @@
         <v>6.5</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -4389,7 +4386,7 @@
         <v>6.5</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -4412,7 +4409,7 @@
         <v>6.5</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -4435,7 +4432,7 @@
         <v>6.5</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -4458,7 +4455,7 @@
         <v>6.5</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -4481,7 +4478,7 @@
         <v>6.5</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -4504,7 +4501,7 @@
         <v>6.5</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -4527,7 +4524,7 @@
         <v>6.5</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -4550,7 +4547,7 @@
         <v>6.5</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -4573,7 +4570,7 @@
         <v>6.5</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183">
@@ -4596,7 +4593,7 @@
         <v>6.5</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184">
@@ -4619,7 +4616,7 @@
         <v>6.5</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -4642,7 +4639,7 @@
         <v>6.5</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186">
@@ -4665,7 +4662,7 @@
         <v>6.5</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187">
@@ -4688,7 +4685,7 @@
         <v>6.5</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -4711,7 +4708,7 @@
         <v>6.5</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
@@ -4734,7 +4731,7 @@
         <v>6.5</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -4757,7 +4754,7 @@
         <v>6.5</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191">
@@ -4780,7 +4777,7 @@
         <v>6.5</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192">
@@ -4803,7 +4800,7 @@
         <v>6.5</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
@@ -4826,7 +4823,7 @@
         <v>6.5</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
@@ -4849,7 +4846,7 @@
         <v>6.5</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -4872,7 +4869,7 @@
         <v>6.5</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
@@ -4895,7 +4892,7 @@
         <v>6.5</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
@@ -4918,7 +4915,7 @@
         <v>6.5</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
@@ -4941,7 +4938,7 @@
         <v>6.5</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
@@ -4964,7 +4961,7 @@
         <v>6.5</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
@@ -4987,7 +4984,7 @@
         <v>6.5</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
@@ -5010,7 +5007,7 @@
         <v>6.5</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
@@ -5033,7 +5030,7 @@
         <v>6.5</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
@@ -5056,7 +5053,7 @@
         <v>6.5</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
@@ -5079,7 +5076,7 @@
         <v>6.5</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
@@ -5102,7 +5099,7 @@
         <v>6.5</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -5125,7 +5122,7 @@
         <v>6.5</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207">
@@ -5148,7 +5145,7 @@
         <v>6.5</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208">
@@ -5171,7 +5168,7 @@
         <v>6.5</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209">
@@ -5194,7 +5191,7 @@
         <v>6.5</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210">
@@ -5217,7 +5214,7 @@
         <v>6.5</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211">
@@ -5240,7 +5237,7 @@
         <v>6.5</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
@@ -5263,7 +5260,7 @@
         <v>6.5</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
@@ -5286,7 +5283,7 @@
         <v>6.5</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214">
@@ -5309,7 +5306,7 @@
         <v>6.5</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215">
@@ -5332,7 +5329,7 @@
         <v>6.5</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
@@ -5355,7 +5352,7 @@
         <v>6.5</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
@@ -5378,7 +5375,7 @@
         <v>6.5</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
@@ -5401,7 +5398,7 @@
         <v>6.0</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
@@ -5424,7 +5421,7 @@
         <v>6.0</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220">
@@ -5447,7 +5444,7 @@
         <v>6.0</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
@@ -5470,7 +5467,7 @@
         <v>6.0</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222">
@@ -5493,7 +5490,7 @@
         <v>6.0</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223">
@@ -5516,7 +5513,7 @@
         <v>6.0</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
@@ -5539,7 +5536,7 @@
         <v>6.0</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225">
@@ -5562,7 +5559,7 @@
         <v>6.0</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226">
@@ -5585,7 +5582,7 @@
         <v>6.0</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227">
@@ -5608,7 +5605,7 @@
         <v>6.0</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228">
@@ -5631,7 +5628,7 @@
         <v>6.0</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229">
@@ -5654,7 +5651,7 @@
         <v>6.0</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230">
@@ -5665,7 +5662,7 @@
         <v>43101.0</v>
       </c>
       <c r="C230" s="4">
-        <v>4.479166666666667</v>
+        <v>4.48</v>
       </c>
       <c r="D230" s="4">
         <v>4.5</v>
@@ -5677,7 +5674,7 @@
         <v>6.0</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231">
@@ -5688,7 +5685,7 @@
         <v>43132.0</v>
       </c>
       <c r="C231" s="4">
-        <v>4.458333333333333</v>
+        <v>4.46</v>
       </c>
       <c r="D231" s="4">
         <v>4.5</v>
@@ -5700,7 +5697,7 @@
         <v>6.0</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232">
@@ -5711,7 +5708,7 @@
         <v>43160.0</v>
       </c>
       <c r="C232" s="4">
-        <v>4.4375</v>
+        <v>4.44</v>
       </c>
       <c r="D232" s="4">
         <v>4.5</v>
@@ -5723,7 +5720,7 @@
         <v>6.0</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233">
@@ -5734,7 +5731,7 @@
         <v>43191.0</v>
       </c>
       <c r="C233" s="4">
-        <v>4.416666666666667</v>
+        <v>4.42</v>
       </c>
       <c r="D233" s="4">
         <v>4.5</v>
@@ -5746,7 +5743,7 @@
         <v>6.0</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234">
@@ -5757,7 +5754,7 @@
         <v>43221.0</v>
       </c>
       <c r="C234" s="4">
-        <v>4.395833333333333</v>
+        <v>4.4</v>
       </c>
       <c r="D234" s="4">
         <v>4.5</v>
@@ -5769,7 +5766,7 @@
         <v>6.0</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235">
@@ -5780,7 +5777,7 @@
         <v>43252.0</v>
       </c>
       <c r="C235" s="4">
-        <v>4.375</v>
+        <v>4.38</v>
       </c>
       <c r="D235" s="4">
         <v>4.5</v>
@@ -5792,7 +5789,7 @@
         <v>6.0</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236">
@@ -5803,7 +5800,7 @@
         <v>43282.0</v>
       </c>
       <c r="C236" s="4">
-        <v>4.354166666666667</v>
+        <v>4.35</v>
       </c>
       <c r="D236" s="4">
         <v>4.5</v>
@@ -5815,7 +5812,7 @@
         <v>6.0</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237">
@@ -5826,7 +5823,7 @@
         <v>43313.0</v>
       </c>
       <c r="C237" s="4">
-        <v>4.333333333333333</v>
+        <v>4.33</v>
       </c>
       <c r="D237" s="4">
         <v>4.5</v>
@@ -5838,7 +5835,7 @@
         <v>6.0</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238">
@@ -5849,7 +5846,7 @@
         <v>43344.0</v>
       </c>
       <c r="C238" s="4">
-        <v>4.3125</v>
+        <v>4.31</v>
       </c>
       <c r="D238" s="4">
         <v>4.5</v>
@@ -5861,7 +5858,7 @@
         <v>6.0</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239">
@@ -5872,7 +5869,7 @@
         <v>43374.0</v>
       </c>
       <c r="C239" s="4">
-        <v>4.291666666666667</v>
+        <v>4.29</v>
       </c>
       <c r="D239" s="4">
         <v>4.5</v>
@@ -5884,7 +5881,7 @@
         <v>6.0</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240">
@@ -5895,7 +5892,7 @@
         <v>43405.0</v>
       </c>
       <c r="C240" s="4">
-        <v>4.270833333333333</v>
+        <v>4.27</v>
       </c>
       <c r="D240" s="4">
         <v>4.5</v>
@@ -5907,7 +5904,7 @@
         <v>6.0</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241">
@@ -5930,7 +5927,7 @@
         <v>6.0</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242">
@@ -5941,7 +5938,7 @@
         <v>43466.0</v>
       </c>
       <c r="C242" s="4">
-        <v>4.229166666666667</v>
+        <v>4.23</v>
       </c>
       <c r="D242" s="4">
         <v>4.25</v>
@@ -5953,7 +5950,7 @@
         <v>5.75</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243">
@@ -5964,7 +5961,7 @@
         <v>43497.0</v>
       </c>
       <c r="C243" s="4">
-        <v>4.208333333333333</v>
+        <v>4.21</v>
       </c>
       <c r="D243" s="4">
         <v>4.25</v>
@@ -5976,7 +5973,7 @@
         <v>5.75</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244">
@@ -5987,7 +5984,7 @@
         <v>43525.0</v>
       </c>
       <c r="C244" s="4">
-        <v>4.1875</v>
+        <v>4.19</v>
       </c>
       <c r="D244" s="4">
         <v>4.25</v>
@@ -5999,7 +5996,7 @@
         <v>5.75</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
@@ -6010,7 +6007,7 @@
         <v>43556.0</v>
       </c>
       <c r="C245" s="4">
-        <v>4.166666666666667</v>
+        <v>4.17</v>
       </c>
       <c r="D245" s="4">
         <v>4.25</v>
@@ -6022,7 +6019,7 @@
         <v>5.75</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246">
@@ -6033,7 +6030,7 @@
         <v>43586.0</v>
       </c>
       <c r="C246" s="4">
-        <v>4.145833333333333</v>
+        <v>4.15</v>
       </c>
       <c r="D246" s="4">
         <v>4.25</v>
@@ -6045,7 +6042,7 @@
         <v>5.75</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247">
@@ -6056,7 +6053,7 @@
         <v>43617.0</v>
       </c>
       <c r="C247" s="4">
-        <v>4.125</v>
+        <v>4.13</v>
       </c>
       <c r="D247" s="4">
         <v>4.25</v>
@@ -6068,7 +6065,7 @@
         <v>5.75</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248">
@@ -6079,7 +6076,7 @@
         <v>43647.0</v>
       </c>
       <c r="C248" s="4">
-        <v>4.104166666666667</v>
+        <v>4.1</v>
       </c>
       <c r="D248" s="4">
         <v>4.25</v>
@@ -6091,7 +6088,7 @@
         <v>5.75</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249">
@@ -6102,7 +6099,7 @@
         <v>43678.0</v>
       </c>
       <c r="C249" s="4">
-        <v>4.083333333333333</v>
+        <v>4.08</v>
       </c>
       <c r="D249" s="4">
         <v>4.25</v>
@@ -6114,7 +6111,7 @@
         <v>5.75</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250">
@@ -6125,7 +6122,7 @@
         <v>43709.0</v>
       </c>
       <c r="C250" s="4">
-        <v>4.0625</v>
+        <v>4.06</v>
       </c>
       <c r="D250" s="4">
         <v>4.25</v>
@@ -6137,7 +6134,7 @@
         <v>5.75</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -6148,7 +6145,7 @@
         <v>43739.0</v>
       </c>
       <c r="C251" s="4">
-        <v>4.041666666666667</v>
+        <v>4.04</v>
       </c>
       <c r="D251" s="4">
         <v>4.25</v>
@@ -6160,7 +6157,7 @@
         <v>5.75</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -6171,7 +6168,7 @@
         <v>43770.0</v>
       </c>
       <c r="C252" s="4">
-        <v>4.020833333333333</v>
+        <v>4.02</v>
       </c>
       <c r="D252" s="4">
         <v>4.25</v>
@@ -6183,7 +6180,7 @@
         <v>5.75</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
@@ -6206,7 +6203,7 @@
         <v>5.75</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
@@ -6217,7 +6214,7 @@
         <v>43831.0</v>
       </c>
       <c r="C254" s="4">
-        <v>3.9791666666666665</v>
+        <v>3.98</v>
       </c>
       <c r="D254" s="4">
         <v>4.0</v>
@@ -6229,7 +6226,7 @@
         <v>5.5</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255">
@@ -6240,7 +6237,7 @@
         <v>43862.0</v>
       </c>
       <c r="C255" s="4">
-        <v>3.9583333333333335</v>
+        <v>3.96</v>
       </c>
       <c r="D255" s="4">
         <v>4.0</v>
@@ -6252,7 +6249,7 @@
         <v>5.5</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256">
@@ -6263,7 +6260,7 @@
         <v>43891.0</v>
       </c>
       <c r="C256" s="4">
-        <v>3.9375</v>
+        <v>3.94</v>
       </c>
       <c r="D256" s="4">
         <v>4.0</v>
@@ -6275,7 +6272,7 @@
         <v>5.5</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257">
@@ -6286,7 +6283,7 @@
         <v>43922.0</v>
       </c>
       <c r="C257" s="4">
-        <v>3.9166666666666665</v>
+        <v>3.92</v>
       </c>
       <c r="D257" s="4">
         <v>4.0</v>
@@ -6298,7 +6295,7 @@
         <v>5.5</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258">
@@ -6309,7 +6306,7 @@
         <v>43952.0</v>
       </c>
       <c r="C258" s="4">
-        <v>3.8958333333333335</v>
+        <v>3.9</v>
       </c>
       <c r="D258" s="4">
         <v>4.0</v>
@@ -6321,7 +6318,7 @@
         <v>5.5</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259">
@@ -6332,7 +6329,7 @@
         <v>43983.0</v>
       </c>
       <c r="C259" s="4">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="D259" s="4">
         <v>4.0</v>
@@ -6344,7 +6341,7 @@
         <v>5.5</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260">
@@ -6355,7 +6352,7 @@
         <v>44013.0</v>
       </c>
       <c r="C260" s="4">
-        <v>3.8541666666666665</v>
+        <v>3.85</v>
       </c>
       <c r="D260" s="4">
         <v>4.0</v>
@@ -6367,7 +6364,7 @@
         <v>5.5</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261">
@@ -6378,7 +6375,7 @@
         <v>44044.0</v>
       </c>
       <c r="C261" s="4">
-        <v>3.8333333333333335</v>
+        <v>3.83</v>
       </c>
       <c r="D261" s="4">
         <v>4.0</v>
@@ -6390,7 +6387,7 @@
         <v>5.5</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262">
@@ -6401,7 +6398,7 @@
         <v>44075.0</v>
       </c>
       <c r="C262" s="4">
-        <v>3.8125</v>
+        <v>3.81</v>
       </c>
       <c r="D262" s="4">
         <v>4.0</v>
@@ -6413,7 +6410,7 @@
         <v>5.5</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263">
@@ -6424,7 +6421,7 @@
         <v>44105.0</v>
       </c>
       <c r="C263" s="4">
-        <v>3.7916666666666665</v>
+        <v>3.79</v>
       </c>
       <c r="D263" s="4">
         <v>4.0</v>
@@ -6436,7 +6433,7 @@
         <v>5.5</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264">
@@ -6447,7 +6444,7 @@
         <v>44136.0</v>
       </c>
       <c r="C264" s="4">
-        <v>3.7708333333333335</v>
+        <v>3.77</v>
       </c>
       <c r="D264" s="4">
         <v>4.0</v>
@@ -6459,7 +6456,7 @@
         <v>5.5</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265">
@@ -6482,7 +6479,7 @@
         <v>5.5</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266">
@@ -6493,7 +6490,7 @@
         <v>44197.0</v>
       </c>
       <c r="C266" s="4">
-        <v>3.7291666666666665</v>
+        <v>3.73</v>
       </c>
       <c r="D266" s="4">
         <v>3.75</v>
@@ -6505,7 +6502,7 @@
         <v>5.25</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267">
@@ -6516,7 +6513,7 @@
         <v>44228.0</v>
       </c>
       <c r="C267" s="4">
-        <v>3.7083333333333335</v>
+        <v>3.71</v>
       </c>
       <c r="D267" s="4">
         <v>3.75</v>
@@ -6528,7 +6525,7 @@
         <v>5.25</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268">
@@ -6539,7 +6536,7 @@
         <v>44256.0</v>
       </c>
       <c r="C268" s="4">
-        <v>3.6875</v>
+        <v>3.69</v>
       </c>
       <c r="D268" s="4">
         <v>3.75</v>
@@ -6551,7 +6548,7 @@
         <v>5.25</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269">
@@ -6562,7 +6559,7 @@
         <v>44287.0</v>
       </c>
       <c r="C269" s="4">
-        <v>3.6666666666666665</v>
+        <v>3.67</v>
       </c>
       <c r="D269" s="4">
         <v>3.75</v>
@@ -6574,7 +6571,7 @@
         <v>5.25</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270">
@@ -6585,7 +6582,7 @@
         <v>44317.0</v>
       </c>
       <c r="C270" s="4">
-        <v>3.6458333333333335</v>
+        <v>3.65</v>
       </c>
       <c r="D270" s="4">
         <v>3.75</v>
@@ -6597,7 +6594,7 @@
         <v>5.25</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271">
@@ -6608,7 +6605,7 @@
         <v>44348.0</v>
       </c>
       <c r="C271" s="4">
-        <v>3.625</v>
+        <v>3.63</v>
       </c>
       <c r="D271" s="4">
         <v>3.75</v>
@@ -6620,7 +6617,7 @@
         <v>5.25</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272">
@@ -6631,7 +6628,7 @@
         <v>44378.0</v>
       </c>
       <c r="C272" s="4">
-        <v>3.6041666666666665</v>
+        <v>3.6</v>
       </c>
       <c r="D272" s="4">
         <v>3.75</v>
@@ -6643,7 +6640,7 @@
         <v>5.25</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273">
@@ -6654,7 +6651,7 @@
         <v>44409.0</v>
       </c>
       <c r="C273" s="4">
-        <v>3.5833333333333335</v>
+        <v>3.58</v>
       </c>
       <c r="D273" s="4">
         <v>3.75</v>
@@ -6666,7 +6663,7 @@
         <v>5.25</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274">
@@ -6677,7 +6674,7 @@
         <v>44440.0</v>
       </c>
       <c r="C274" s="4">
-        <v>3.5625</v>
+        <v>3.56</v>
       </c>
       <c r="D274" s="4">
         <v>3.75</v>
@@ -6689,7 +6686,7 @@
         <v>5.25</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275">
@@ -6700,7 +6697,7 @@
         <v>44470.0</v>
       </c>
       <c r="C275" s="4">
-        <v>3.5416666666666665</v>
+        <v>3.54</v>
       </c>
       <c r="D275" s="4">
         <v>3.75</v>
@@ -6712,7 +6709,7 @@
         <v>5.25</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276">
@@ -6723,7 +6720,7 @@
         <v>44501.0</v>
       </c>
       <c r="C276" s="4">
-        <v>3.5208333333333335</v>
+        <v>3.52</v>
       </c>
       <c r="D276" s="4">
         <v>3.75</v>
@@ -6735,7 +6732,7 @@
         <v>5.25</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277">
@@ -6758,7 +6755,7 @@
         <v>5.25</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278">
@@ -6769,7 +6766,7 @@
         <v>44562.0</v>
       </c>
       <c r="C278" s="4">
-        <v>3.4791666666666665</v>
+        <v>3.48</v>
       </c>
       <c r="D278" s="4">
         <v>3.5</v>
@@ -6781,7 +6778,7 @@
         <v>5.0</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="279">
@@ -6792,7 +6789,7 @@
         <v>44593.0</v>
       </c>
       <c r="C279" s="4">
-        <v>3.4583333333333335</v>
+        <v>3.46</v>
       </c>
       <c r="D279" s="4">
         <v>3.5</v>
@@ -6804,7 +6801,7 @@
         <v>5.0</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280">
@@ -6815,7 +6812,7 @@
         <v>44621.0</v>
       </c>
       <c r="C280" s="4">
-        <v>3.4375</v>
+        <v>3.44</v>
       </c>
       <c r="D280" s="4">
         <v>3.5</v>
@@ -6827,7 +6824,7 @@
         <v>5.0</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="281">
@@ -6838,7 +6835,7 @@
         <v>44652.0</v>
       </c>
       <c r="C281" s="4">
-        <v>3.4166666666666665</v>
+        <v>3.42</v>
       </c>
       <c r="D281" s="4">
         <v>3.5</v>
@@ -6850,7 +6847,7 @@
         <v>5.0</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282">
@@ -6861,7 +6858,7 @@
         <v>44682.0</v>
       </c>
       <c r="C282" s="4">
-        <v>3.3958333333333335</v>
+        <v>3.4</v>
       </c>
       <c r="D282" s="4">
         <v>3.5</v>
@@ -6873,7 +6870,7 @@
         <v>5.0</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283">
@@ -6884,7 +6881,7 @@
         <v>44713.0</v>
       </c>
       <c r="C283" s="4">
-        <v>3.375</v>
+        <v>3.38</v>
       </c>
       <c r="D283" s="4">
         <v>3.5</v>
@@ -6896,7 +6893,7 @@
         <v>5.0</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284">
@@ -6907,7 +6904,7 @@
         <v>44743.0</v>
       </c>
       <c r="C284" s="4">
-        <v>3.3541666666666665</v>
+        <v>3.35</v>
       </c>
       <c r="D284" s="4">
         <v>3.5</v>
@@ -6919,7 +6916,7 @@
         <v>5.0</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285">
@@ -6930,7 +6927,7 @@
         <v>44774.0</v>
       </c>
       <c r="C285" s="4">
-        <v>3.3333333333333335</v>
+        <v>3.33</v>
       </c>
       <c r="D285" s="4">
         <v>3.5</v>
@@ -6942,7 +6939,7 @@
         <v>5.0</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286">
@@ -6953,7 +6950,7 @@
         <v>44805.0</v>
       </c>
       <c r="C286" s="4">
-        <v>3.3125</v>
+        <v>3.31</v>
       </c>
       <c r="D286" s="4">
         <v>3.5</v>
@@ -6965,7 +6962,7 @@
         <v>5.0</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287">
@@ -6976,7 +6973,7 @@
         <v>44835.0</v>
       </c>
       <c r="C287" s="4">
-        <v>3.2916666666666665</v>
+        <v>3.29</v>
       </c>
       <c r="D287" s="4">
         <v>3.5</v>
@@ -6988,7 +6985,7 @@
         <v>5.0</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288">
@@ -6999,7 +6996,7 @@
         <v>44866.0</v>
       </c>
       <c r="C288" s="4">
-        <v>3.2708333333333335</v>
+        <v>3.27</v>
       </c>
       <c r="D288" s="4">
         <v>3.5</v>
@@ -7011,7 +7008,7 @@
         <v>5.0</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289">
@@ -7034,7 +7031,7 @@
         <v>5.0</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="290">
@@ -7045,7 +7042,7 @@
         <v>44927.0</v>
       </c>
       <c r="C290" s="4">
-        <v>3.2291666666666665</v>
+        <v>3.23</v>
       </c>
       <c r="D290" s="4">
         <v>3.25</v>
@@ -7057,7 +7054,7 @@
         <v>4.75</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291">
@@ -7068,7 +7065,7 @@
         <v>44958.0</v>
       </c>
       <c r="C291" s="4">
-        <v>3.2083333333333335</v>
+        <v>3.21</v>
       </c>
       <c r="D291" s="4">
         <v>3.25</v>
@@ -7080,7 +7077,7 @@
         <v>4.75</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292">
@@ -7091,7 +7088,7 @@
         <v>44986.0</v>
       </c>
       <c r="C292" s="4">
-        <v>3.1875</v>
+        <v>3.19</v>
       </c>
       <c r="D292" s="4">
         <v>3.25</v>
@@ -7103,7 +7100,7 @@
         <v>4.75</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293">
@@ -7114,7 +7111,7 @@
         <v>45017.0</v>
       </c>
       <c r="C293" s="4">
-        <v>3.1666666666666665</v>
+        <v>3.17</v>
       </c>
       <c r="D293" s="4">
         <v>3.25</v>
@@ -7126,7 +7123,7 @@
         <v>4.75</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294">
@@ -7137,7 +7134,7 @@
         <v>45047.0</v>
       </c>
       <c r="C294" s="4">
-        <v>3.1458333333333335</v>
+        <v>3.15</v>
       </c>
       <c r="D294" s="4">
         <v>3.25</v>
@@ -7149,7 +7146,7 @@
         <v>4.75</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295">
@@ -7160,7 +7157,7 @@
         <v>45078.0</v>
       </c>
       <c r="C295" s="4">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
       <c r="D295" s="4">
         <v>3.25</v>
@@ -7172,7 +7169,7 @@
         <v>4.75</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="296">
@@ -7183,7 +7180,7 @@
         <v>45108.0</v>
       </c>
       <c r="C296" s="4">
-        <v>3.1041666666666665</v>
+        <v>3.1</v>
       </c>
       <c r="D296" s="4">
         <v>3.25</v>
@@ -7195,7 +7192,7 @@
         <v>4.75</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297">
@@ -7206,7 +7203,7 @@
         <v>45139.0</v>
       </c>
       <c r="C297" s="4">
-        <v>3.0833333333333335</v>
+        <v>3.08</v>
       </c>
       <c r="D297" s="4">
         <v>3.25</v>
@@ -7218,7 +7215,7 @@
         <v>4.75</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298">
@@ -7229,7 +7226,7 @@
         <v>45170.0</v>
       </c>
       <c r="C298" s="4">
-        <v>3.0625</v>
+        <v>3.06</v>
       </c>
       <c r="D298" s="4">
         <v>3.25</v>
@@ -7241,7 +7238,7 @@
         <v>4.75</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299">
@@ -7252,7 +7249,7 @@
         <v>45200.0</v>
       </c>
       <c r="C299" s="4">
-        <v>3.0416666666666665</v>
+        <v>3.04</v>
       </c>
       <c r="D299" s="4">
         <v>3.25</v>
@@ -7264,7 +7261,7 @@
         <v>4.75</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300">
@@ -7275,7 +7272,7 @@
         <v>45231.0</v>
       </c>
       <c r="C300" s="4">
-        <v>3.0208333333333335</v>
+        <v>3.02</v>
       </c>
       <c r="D300" s="4">
         <v>3.25</v>
@@ -7287,7 +7284,7 @@
         <v>4.75</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="301">
@@ -7310,7 +7307,7 @@
         <v>4.75</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302">
@@ -7333,7 +7330,7 @@
         <v>4.5</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303">
@@ -7356,7 +7353,7 @@
         <v>4.5</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="304">
@@ -7379,7 +7376,7 @@
         <v>4.5</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305">
@@ -7402,7 +7399,7 @@
         <v>4.5</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306">
@@ -7425,7 +7422,7 @@
         <v>4.5</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307">
@@ -7448,7 +7445,7 @@
         <v>4.5</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308">
@@ -7471,7 +7468,7 @@
         <v>4.5</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="309">
@@ -7494,7 +7491,7 @@
         <v>4.5</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310">
@@ -7517,7 +7514,7 @@
         <v>4.5</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311">
@@ -7540,7 +7537,7 @@
         <v>4.5</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312">
@@ -7563,7 +7560,7 @@
         <v>4.5</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313">
@@ -7586,7 +7583,7 @@
         <v>4.5</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314">
@@ -7609,7 +7606,7 @@
         <v>4.5</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="315">
@@ -7632,7 +7629,7 @@
         <v>4.5</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="316">
@@ -7655,7 +7652,7 @@
         <v>4.5</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="317">
@@ -7678,7 +7675,7 @@
         <v>4.5</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="318">
@@ -7701,7 +7698,7 @@
         <v>4.5</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="319">
@@ -7724,7 +7721,7 @@
         <v>4.5</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320">
@@ -7747,7 +7744,7 @@
         <v>4.5</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="321">
@@ -7770,7 +7767,7 @@
         <v>4.5</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="322">
@@ -7793,7 +7790,7 @@
         <v>4.5</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="323">
@@ -7816,7 +7813,7 @@
         <v>4.5</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="324">
@@ -7839,7 +7836,7 @@
         <v>4.5</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325">
@@ -7862,7 +7859,7 @@
         <v>4.5</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
